--- a/Doc/融创接口/设计协同项目/CAD设计协同-项目主数据字段.xlsx
+++ b/Doc/融创接口/设计协同项目/CAD设计协同-项目主数据字段.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\融创接口\设计协同项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639736E-2FFF-4D6E-8718-64C0FF646700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BBC2C7-A591-4DB6-8D6D-6BD174543533}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据表" sheetId="1" r:id="rId1"/>
+    <sheet name="主数据需提供字段" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
-  <si>
-    <t>协同设计项目需同步的项目主数据字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,18 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目结构层级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由项目主数据的区域编码转为区域名称字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目结构长名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,14 +124,6 @@
   </si>
   <si>
     <t>公司名称为该项目的项目公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主数据存储城市编码id，由主数据提供城市配置表接口，得到城市名称字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06表_项目版本信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,6 +193,160 @@
 1. 项目主数据中的 测算项目类型字段 筛选 01 （正常项目）
 2. 初始化时通过数据导入的方式，初始化后采用增量拉数据方式
 3. 项目主数据包括城市物理名称、地块编码和地块名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主数据存储城市编码id，由主数据提供城市配置表接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到城市名称字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>城市公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>06表_项目版本信息表，返回的是id，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CAD系统建立对应的表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>由项目主数据的区域编码，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回的是id，CAD系统建立对应表，转为区域名称字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD协同设计项目需同步的项目主数据字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD项目主数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD项目分区楼栋关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目、分区、楼栋的编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的父节点为空；分区的父节点为项目，根据主数据项目编码的分隔符得到项目名称；楼栋根据主数据编码的分割符得到分区名称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编码示例
+项目：P0091
+分期：P0091-01
+楼栋：P0091-01-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目：项目名称
+分期：项目名称-分区名称
+楼栋：项目名称-分区名称-楼栋名称
+示例：永清融创城-一区-1#楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目公司代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主数据存储城市编码id，由主数据提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城市名称字符串</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +405,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -289,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -332,11 +470,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -385,6 +547,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,30 +849,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="29.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="8.875" style="2"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="32.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="8.88671875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -699,446 +885,1254 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="18">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="18">
+        <v>60</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="18">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="18">
+        <v>30</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="18">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="18">
+        <v>8</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="18">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18">
+        <v>30</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="18">
+        <v>20</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="18">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="18">
+        <v>50</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5">
+        <v>24</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="18">
+        <v>24</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5">
+        <v>60</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="18">
+        <v>60</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="78" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="18">
+        <v>24</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>4</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A25:K27"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A18:K18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC9B69F-56D8-4493-B7A3-EA99A17BE927}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="8.88671875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="18">
         <v>24</v>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5">
         <v>60</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="18">
         <v>60</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="5"/>
+      <c r="K4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5">
         <v>4</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="18">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="18">
         <v>30</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="J6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="18">
         <v>30</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="18">
         <v>2</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5">
         <v>8</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="18">
         <v>8</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="18">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="5">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5">
         <v>20</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="5">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18">
         <v>20</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="J12" s="5"/>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="5">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="18">
         <v>1</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="5"/>
+      <c r="K13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="5">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="18">
         <v>4</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5">
         <v>50</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="5">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="18">
         <v>50</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A18:I20"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A23:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
